--- a/public/baocao1.xlsx
+++ b/public/baocao1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
   <si>
     <t>STT</t>
   </si>
@@ -74,69 +74,6 @@
     <t>Kích Hoạt</t>
   </si>
   <si>
-    <t>VLXD Gia KHang P.V.Hớn</t>
-  </si>
-  <si>
-    <t>16/5 Phan Văn Hớn, Nam Lân, Bà Điểm Hóc Môn</t>
-  </si>
-  <si>
-    <t>0919933211</t>
-  </si>
-  <si>
-    <t>Bếp âm Civina CV-818</t>
-  </si>
-  <si>
-    <t>BACV-818</t>
-  </si>
-  <si>
-    <t>2103240b4d69a78a</t>
-  </si>
-  <si>
-    <t>20-10-2021</t>
-  </si>
-  <si>
-    <t>20-10-2023</t>
-  </si>
-  <si>
-    <t>Vlxd Tấn Phước Cần Thơ</t>
-  </si>
-  <si>
-    <t>2103246e1befaa94</t>
-  </si>
-  <si>
-    <t>11-10-2021</t>
-  </si>
-  <si>
-    <t>11-10-2023</t>
-  </si>
-  <si>
-    <t>Nhung HT Decor</t>
-  </si>
-  <si>
-    <t>2103248f4a852ce1</t>
-  </si>
-  <si>
-    <t>07-04-2022</t>
-  </si>
-  <si>
-    <t>06-04-2024</t>
-  </si>
-  <si>
-    <t>Thiết bị điện Lộc Phát</t>
-  </si>
-  <si>
-    <t>0939.264.637</t>
-  </si>
-  <si>
-    <t>21032470cda7b89e</t>
-  </si>
-  <si>
-    <t>18-04-2022</t>
-  </si>
-  <si>
-    <t>17-04-2024</t>
-  </si>
-  <si>
     <t>Cửa hàng Thanh Bình Nhơn Trạch (Huyền)</t>
   </si>
   <si>
@@ -155,91 +92,1156 @@
     <t>2103242b2a849484</t>
   </si>
   <si>
-    <t>Cửa hàng Thanh Thảo</t>
-  </si>
-  <si>
-    <t>Ô1, Lô D, Đơờng BH24, P. Bình Hòa, TA, BD</t>
-  </si>
-  <si>
-    <t>0868505855</t>
-  </si>
-  <si>
-    <t>2103248e54a614b1</t>
-  </si>
-  <si>
-    <t>05-11-2021</t>
-  </si>
-  <si>
-    <t>05-11-2023</t>
-  </si>
-  <si>
-    <t>Vlxd Ngọc Hòa</t>
-  </si>
-  <si>
-    <t>2103245d9c24fec3</t>
-  </si>
-  <si>
-    <t>15-06-2021</t>
-  </si>
-  <si>
-    <t>15-06-2023</t>
-  </si>
-  <si>
-    <t>Hương CTV</t>
-  </si>
-  <si>
-    <t>206 Tân Xuân Hóc Môm</t>
-  </si>
-  <si>
-    <t>0933319773</t>
-  </si>
-  <si>
-    <t>21032492ace5b17b</t>
-  </si>
-  <si>
-    <t>24-11-2021</t>
-  </si>
-  <si>
-    <t>24-11-2023</t>
-  </si>
-  <si>
-    <t>Cửa hàng VLXD Hai Danh</t>
-  </si>
-  <si>
-    <t>KP Ba đình P. Thái Hòa TX Tân Uyên Bình Dương</t>
-  </si>
-  <si>
-    <t>0918912424</t>
-  </si>
-  <si>
-    <t>210324930ce945e0</t>
-  </si>
-  <si>
-    <t>22-10-2021</t>
-  </si>
-  <si>
-    <t>22-10-2023</t>
-  </si>
-  <si>
-    <t>A Hùng NT Bình Mỹ Củ Chi</t>
-  </si>
-  <si>
-    <t>381 đường Bình Mỹ, Củ Chi (Gần Cầu Cây Xanh)</t>
-  </si>
-  <si>
-    <t>0942727833</t>
-  </si>
-  <si>
-    <t>2103241dd32d3f2c</t>
-  </si>
-  <si>
-    <t>03-01-2022</t>
-  </si>
-  <si>
-    <t>03-01-2024</t>
-  </si>
-  <si>
-    <t>210324ddde34c6b3</t>
+    <t>CTY KIM THÀNH PHÁT</t>
+  </si>
+  <si>
+    <t>0919401840</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại EI-6226</t>
+  </si>
+  <si>
+    <t>BĐTHNEI-6226</t>
+  </si>
+  <si>
+    <t>21032699fb92808c</t>
+  </si>
+  <si>
+    <t>14-07-2022</t>
+  </si>
+  <si>
+    <t>13-07-2024</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại CV-676</t>
+  </si>
+  <si>
+    <t>BĐTHNCV-676</t>
+  </si>
+  <si>
+    <t>2104086d9805cd74</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CV-626</t>
+  </si>
+  <si>
+    <t>BĐTCV-626</t>
+  </si>
+  <si>
+    <t>210408eb51cad195</t>
+  </si>
+  <si>
+    <t>2104083f227b15b2</t>
+  </si>
+  <si>
+    <t>21040822aeb40e4a</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CV-879</t>
+  </si>
+  <si>
+    <t>BĐTCV-879</t>
+  </si>
+  <si>
+    <t>2104088d6c326dcf</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại EI-6206</t>
+  </si>
+  <si>
+    <t>BĐTHNEI-6206</t>
+  </si>
+  <si>
+    <t>210408e8c5b7ef5f</t>
+  </si>
+  <si>
+    <t>2104089847c0bccb</t>
+  </si>
+  <si>
+    <t>21040875ef401738</t>
+  </si>
+  <si>
+    <t>2104080b3969f1c2</t>
+  </si>
+  <si>
+    <t>210408972f189878</t>
+  </si>
+  <si>
+    <t>2104084d98d10b43</t>
+  </si>
+  <si>
+    <t>210408047314054a</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại IE-2156</t>
+  </si>
+  <si>
+    <t>BĐTHNIE-2156</t>
+  </si>
+  <si>
+    <t>210408fd81bd78ef</t>
+  </si>
+  <si>
+    <t>2104086ee2ee63c5</t>
+  </si>
+  <si>
+    <t>Hút khói Canaval CA-8870S</t>
+  </si>
+  <si>
+    <t>HKCA-8870S</t>
+  </si>
+  <si>
+    <t>210408f98eadc404</t>
+  </si>
+  <si>
+    <t>21040821d89affd4</t>
+  </si>
+  <si>
+    <t>210408e1a24d496a</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CA-9919</t>
+  </si>
+  <si>
+    <t>BĐTCA-9919</t>
+  </si>
+  <si>
+    <t>21040821aa3c4dbf</t>
+  </si>
+  <si>
+    <t>Cty TNHH American Home Việt Nam</t>
+  </si>
+  <si>
+    <t>Phơờng Tân Đông Hiệp, TX Dĩ An, Tỉnh BD</t>
+  </si>
+  <si>
+    <t>0902448818</t>
+  </si>
+  <si>
+    <t>210408fa667cc062</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CV-616</t>
+  </si>
+  <si>
+    <t>BĐTCV-616</t>
+  </si>
+  <si>
+    <t>210408b101efa6d1</t>
+  </si>
+  <si>
+    <t>2104084748ce3360</t>
+  </si>
+  <si>
+    <t>210408e0efcd5110</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CA-9969</t>
+  </si>
+  <si>
+    <t>BĐTCA-9969</t>
+  </si>
+  <si>
+    <t>210408db984e5bcc</t>
+  </si>
+  <si>
+    <t>2104080fe21b0ed3</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ 1 hồng ngoại CA-9999</t>
+  </si>
+  <si>
+    <t>BĐTHN-9999</t>
+  </si>
+  <si>
+    <t>210408bc64d76358</t>
+  </si>
+  <si>
+    <t>2104084c57f3c10b</t>
+  </si>
+  <si>
+    <t>2104080c891a54dc</t>
+  </si>
+  <si>
+    <t>210408e6eebeb29d</t>
+  </si>
+  <si>
+    <t>Máy hút khói âm tủ Canaval CA-8700T</t>
+  </si>
+  <si>
+    <t>HKCA-8700T</t>
+  </si>
+  <si>
+    <t>2104080c1138a94a</t>
+  </si>
+  <si>
+    <t>210408800e2ef58d</t>
+  </si>
+  <si>
+    <t>Máy hút khói kính cong cảm ứng CV-3670S</t>
+  </si>
+  <si>
+    <t>HKCV-3670S</t>
+  </si>
+  <si>
+    <t>2104087cd5dfe96b</t>
+  </si>
+  <si>
+    <t>2104089aac590409</t>
+  </si>
+  <si>
+    <t>Công ty TNHH nội thất Đồng Xoài</t>
+  </si>
+  <si>
+    <t>36/266 QL14, P. Tân Đồng, TP Đ. Xoài, BP</t>
+  </si>
+  <si>
+    <t>0962.672.742 (HuÕ)</t>
+  </si>
+  <si>
+    <t>Hút khói  Canaval CA-8770S</t>
+  </si>
+  <si>
+    <t>HKCA-8770S</t>
+  </si>
+  <si>
+    <t>210408acf80eb857</t>
+  </si>
+  <si>
+    <t>21040845161674c1</t>
+  </si>
+  <si>
+    <t>210408cfea82cafb</t>
+  </si>
+  <si>
+    <t>Hút khói  Civina CV-700B</t>
+  </si>
+  <si>
+    <t>HKCV-700B</t>
+  </si>
+  <si>
+    <t>210408948d6fc44b</t>
+  </si>
+  <si>
+    <t>210408bf2cc70ee5</t>
+  </si>
+  <si>
+    <t>Hút khói  Civina CV-700A</t>
+  </si>
+  <si>
+    <t>HKCV-700A</t>
+  </si>
+  <si>
+    <t>210408cc33f331bb</t>
+  </si>
+  <si>
+    <t>Hút khói Civina CV-3388A</t>
+  </si>
+  <si>
+    <t>HKCV-3388A</t>
+  </si>
+  <si>
+    <t>210408bbca682943</t>
+  </si>
+  <si>
+    <t>210408ea2d63a9fe</t>
+  </si>
+  <si>
+    <t>21040875bd571165</t>
+  </si>
+  <si>
+    <t>Tủ Bếp Nhựa T.V.Mười</t>
+  </si>
+  <si>
+    <t>2/5B Trần Văn Mơời, Hóc Môn</t>
+  </si>
+  <si>
+    <t>0979.501.300</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CA-9939</t>
+  </si>
+  <si>
+    <t>BĐTCA-9939</t>
+  </si>
+  <si>
+    <t>21040807ba506f16</t>
+  </si>
+  <si>
+    <t>Nt Tú Nguyễn Bình Dương</t>
+  </si>
+  <si>
+    <t>70 Đông Minh, Đông Hòa, Dĩ An</t>
+  </si>
+  <si>
+    <t>0972674740</t>
+  </si>
+  <si>
+    <t>2104087569ba8aa7</t>
+  </si>
+  <si>
+    <t>13-07-2022</t>
+  </si>
+  <si>
+    <t>12-07-2024</t>
+  </si>
+  <si>
+    <t>Sơn S8 Hóc Môn</t>
+  </si>
+  <si>
+    <t>210408459d5d2328</t>
+  </si>
+  <si>
+    <t>NT Xinh</t>
+  </si>
+  <si>
+    <t>50 Thống Nhất, TT.Liên Nghĩa</t>
+  </si>
+  <si>
+    <t>0918.348.182</t>
+  </si>
+  <si>
+    <t>Bếp điện 1 từ 1 hồng ngoại CA-9929</t>
+  </si>
+  <si>
+    <t>BĐTHNCA-9929</t>
+  </si>
+  <si>
+    <t>210408c96d9cd1db</t>
+  </si>
+  <si>
+    <t>Phụ Kiện Thiên Phú Củ Chi</t>
+  </si>
+  <si>
+    <t>103 Hà Duy Phiên, ấp 5, Xã Bình Mỹ, H. Củ Chi</t>
+  </si>
+  <si>
+    <t>0907.629.459</t>
+  </si>
+  <si>
+    <t>2104087a84ac83c4</t>
+  </si>
+  <si>
+    <t>21040844f3b37132</t>
+  </si>
+  <si>
+    <t>Hút khói Canaval CA-8970S</t>
+  </si>
+  <si>
+    <t>HKCA-8970S</t>
+  </si>
+  <si>
+    <t>210408a81dc2fd68</t>
+  </si>
+  <si>
+    <t>Tùng Mai CERAMICS</t>
+  </si>
+  <si>
+    <t>1146 PHẠM VĂN ĐỒNG, P LINH ĐÔNG, TP THỦ ĐỨC</t>
+  </si>
+  <si>
+    <t>'0903639945</t>
+  </si>
+  <si>
+    <t>210408bf519d5998</t>
+  </si>
+  <si>
+    <t>12-07-2022</t>
+  </si>
+  <si>
+    <t>11-07-2024</t>
+  </si>
+  <si>
+    <t>Công Ty Thịnh ĐẠi Phúc</t>
+  </si>
+  <si>
+    <t>38 tổ 15 KP 3 P. Trảng Dài TP Biên Hòa Đồng Nai</t>
+  </si>
+  <si>
+    <t>0949339779</t>
+  </si>
+  <si>
+    <t>2104083755a601c3</t>
+  </si>
+  <si>
+    <t>CTY TNHH Lộc Toàn Phát</t>
+  </si>
+  <si>
+    <t>913/15/15 Hà Huy Giáp , P.Thạnh Xuân</t>
+  </si>
+  <si>
+    <t>0913.711.825</t>
+  </si>
+  <si>
+    <t>2104085409c2eb61</t>
+  </si>
+  <si>
+    <t>Đèn Cường Phát Củ Chi</t>
+  </si>
+  <si>
+    <t>0779.724.904</t>
+  </si>
+  <si>
+    <t>21040858c1560a9a</t>
+  </si>
+  <si>
+    <t>VLXD Hùng Phát Đồng Nai</t>
+  </si>
+  <si>
+    <t>Ấp Cây Điêu, H.Bàu Hàm</t>
+  </si>
+  <si>
+    <t>0382539799</t>
+  </si>
+  <si>
+    <t>2104080446977e99</t>
+  </si>
+  <si>
+    <t>Cửa hàng TTNT Dũng Mạnh</t>
+  </si>
+  <si>
+    <t>Đơờng Đồng Khởi , Trảng Dài, Biên Hòa, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0396461674</t>
+  </si>
+  <si>
+    <t>210408d544eb9059</t>
+  </si>
+  <si>
+    <t>21040831e307714c</t>
+  </si>
+  <si>
+    <t>210408fddcaabf20</t>
+  </si>
+  <si>
+    <t>210408e6349f31cc</t>
+  </si>
+  <si>
+    <t>2104085976b13330</t>
+  </si>
+  <si>
+    <t>VLXD Hưng Bình Tân Uyên</t>
+  </si>
+  <si>
+    <t>0988344733</t>
+  </si>
+  <si>
+    <t>21040817062efb36</t>
+  </si>
+  <si>
+    <t>Máy hút khói CIVIN CV-Smart</t>
+  </si>
+  <si>
+    <t>HKCV-Smart</t>
+  </si>
+  <si>
+    <t>2104088163aa7a12</t>
+  </si>
+  <si>
+    <t>Vinh Cty</t>
+  </si>
+  <si>
+    <t>2104080bb0be7971</t>
+  </si>
+  <si>
+    <t>Vlxd Đức tài Kiên Giang</t>
+  </si>
+  <si>
+    <t>Phố Xà Ngách, Thị trấn Lương Kiên, huyện Lương Kiên Tỉnh Kiên Giang</t>
+  </si>
+  <si>
+    <t>'0963491649</t>
+  </si>
+  <si>
+    <t>Bếp âm Canaval CA-6818</t>
+  </si>
+  <si>
+    <t>BACA-6818</t>
+  </si>
+  <si>
+    <t>210326c2151d6f4a</t>
+  </si>
+  <si>
+    <t>11-07-2022</t>
+  </si>
+  <si>
+    <t>10-07-2024</t>
+  </si>
+  <si>
+    <t>CTY Xây Dựng Thành Tâm</t>
+  </si>
+  <si>
+    <t>163C BÙI THỊ XUÂN, P1, TP BẢO LỘC, T LÂM ĐỒNG</t>
+  </si>
+  <si>
+    <t>'0387654387</t>
+  </si>
+  <si>
+    <t>210326b35c078ed6</t>
+  </si>
+  <si>
+    <t>XD VPT Group</t>
+  </si>
+  <si>
+    <t>0981200069</t>
+  </si>
+  <si>
+    <t>Hút khói Canaval CA-8290</t>
+  </si>
+  <si>
+    <t>HKCA-8290</t>
+  </si>
+  <si>
+    <t>210408218dd17592</t>
+  </si>
+  <si>
+    <t>Năng Lượng Huy Phát</t>
+  </si>
+  <si>
+    <t>0977.774.739</t>
+  </si>
+  <si>
+    <t>2104085c9c2528ff</t>
+  </si>
+  <si>
+    <t>Vlxd Phương Đông Long An</t>
+  </si>
+  <si>
+    <t>0973450813</t>
+  </si>
+  <si>
+    <t>2104082e925f138a</t>
+  </si>
+  <si>
+    <t>Anh Bột</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51/3c  ấp Mỹ Hòa xã trung chánh   Tên  kh hàng  bột </t>
+  </si>
+  <si>
+    <t>210408236700ba5e</t>
+  </si>
+  <si>
+    <t>NT Hố Nai</t>
+  </si>
+  <si>
+    <t>2/22 KP8 , P.Long Bình</t>
+  </si>
+  <si>
+    <t>0934357579</t>
+  </si>
+  <si>
+    <t>210408567e49f13f</t>
+  </si>
+  <si>
+    <t>Cộng tác viên Thanh Việt úc</t>
+  </si>
+  <si>
+    <t>109 Đặng Thúc Vịnh, Hóc Môn</t>
+  </si>
+  <si>
+    <t>0902.631.456</t>
+  </si>
+  <si>
+    <t>2104087286a93c68</t>
+  </si>
+  <si>
+    <t>Showroom Phú Mỹ (Ong Biển Sài Gòn)</t>
+  </si>
+  <si>
+    <t>Tổ 13, KP Bến Đình, Mỹ Xuân, Phú Mỹ, BR-VT</t>
+  </si>
+  <si>
+    <t>0971.333.645</t>
+  </si>
+  <si>
+    <t>2104084db3ee91c6</t>
+  </si>
+  <si>
+    <t>CTY TNHH MTV Sơn Lộc Phát</t>
+  </si>
+  <si>
+    <t>50 Nguyễn Tất Thành, Xã Lý Văn Lâm</t>
+  </si>
+  <si>
+    <t>0918077207</t>
+  </si>
+  <si>
+    <t>210408f9e728abb0</t>
+  </si>
+  <si>
+    <t>VLXD Bắc</t>
+  </si>
+  <si>
+    <t>Quốc lộ 1A, Xã Suối Cát</t>
+  </si>
+  <si>
+    <t>0942287768-091602364</t>
+  </si>
+  <si>
+    <t>Bếp âm Canaval CA-6838</t>
+  </si>
+  <si>
+    <t>BACA-6838</t>
+  </si>
+  <si>
+    <t>21040875283b0bf5</t>
+  </si>
+  <si>
+    <t>21040898fd592f07</t>
+  </si>
+  <si>
+    <t>Hút khói  Canaval CA-8990S</t>
+  </si>
+  <si>
+    <t>HKCA-8990S</t>
+  </si>
+  <si>
+    <t>21040878a4f8069b</t>
+  </si>
+  <si>
+    <t>NT Gia Đạt Long Thành</t>
+  </si>
+  <si>
+    <t>97 Tân Hiệp, Long Thành, Đồng Nai</t>
+  </si>
+  <si>
+    <t>0937.867.575</t>
+  </si>
+  <si>
+    <t>210326514fbd58be</t>
+  </si>
+  <si>
+    <t>09-07-2022</t>
+  </si>
+  <si>
+    <t>08-07-2024</t>
+  </si>
+  <si>
+    <t>DL Minh Đức</t>
+  </si>
+  <si>
+    <t>0918886344</t>
+  </si>
+  <si>
+    <t>210408ae98bc6576</t>
+  </si>
+  <si>
+    <t>Cửa hàng Nội Thất Sài Gòn</t>
+  </si>
+  <si>
+    <t>Đông Hải, tân Hải, Tân Thành, BR-VT</t>
+  </si>
+  <si>
+    <t>0985.531.136</t>
+  </si>
+  <si>
+    <t>Hút khói Civina CV-700T</t>
+  </si>
+  <si>
+    <t>KHCV-700T</t>
+  </si>
+  <si>
+    <t>2104081c5d6786b7</t>
+  </si>
+  <si>
+    <t>NPP Thảm Anh Hoàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 Phan Văn Hớn , P.Tân Thới Nhất </t>
+  </si>
+  <si>
+    <t>0961527955</t>
+  </si>
+  <si>
+    <t>2104089ba75539b5</t>
+  </si>
+  <si>
+    <t>Hoa Đại Hùng Dũng Q12</t>
+  </si>
+  <si>
+    <t>210408ad2d8fb88e</t>
+  </si>
+  <si>
+    <t>210408e398bf5fe0</t>
+  </si>
+  <si>
+    <t>Bếp điên từ hồng ngoại CIVIN CV-690</t>
+  </si>
+  <si>
+    <t>BĐCV-690</t>
+  </si>
+  <si>
+    <t>2104080464eb8bfc</t>
+  </si>
+  <si>
+    <t>08-07-2022</t>
+  </si>
+  <si>
+    <t>07-07-2024</t>
+  </si>
+  <si>
+    <t>Máy hút khói CIVIN CA-8270S</t>
+  </si>
+  <si>
+    <t>HKCA-8270S</t>
+  </si>
+  <si>
+    <t>2104087f6ecb174a</t>
+  </si>
+  <si>
+    <t>VLXD Ngọc Vân 2</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Trí, TT.Tân Túc</t>
+  </si>
+  <si>
+    <t>02837600188</t>
+  </si>
+  <si>
+    <t>210408578363028e</t>
+  </si>
+  <si>
+    <t>Việt Hà Đồng Nai</t>
+  </si>
+  <si>
+    <t>Long Bình Biên Hòa Đồng Nai</t>
+  </si>
+  <si>
+    <t>0989620602</t>
+  </si>
+  <si>
+    <t>210408f956a400df</t>
+  </si>
+  <si>
+    <t>2104085371e950ef</t>
+  </si>
+  <si>
+    <t>210408bd080eb524</t>
+  </si>
+  <si>
+    <t>2104085ddfdb3043</t>
+  </si>
+  <si>
+    <t>Cửa hàng VLXD Đại Trường Thành</t>
+  </si>
+  <si>
+    <t>375 Tô Hiến Thành, P.14, Q.10</t>
+  </si>
+  <si>
+    <t>0933336748</t>
+  </si>
+  <si>
+    <t>210408618b1b0290</t>
+  </si>
+  <si>
+    <t>21040803a63124bc</t>
+  </si>
+  <si>
+    <t>21040858e501d82c</t>
+  </si>
+  <si>
+    <t>210408dfef777fab</t>
+  </si>
+  <si>
+    <t>210408f9ce292ea3</t>
+  </si>
+  <si>
+    <t>2104081c9120987f</t>
+  </si>
+  <si>
+    <t>NT Hương Mộc Decco</t>
+  </si>
+  <si>
+    <t>67, Đường 297, P.Phước Long</t>
+  </si>
+  <si>
+    <t>0901462539</t>
+  </si>
+  <si>
+    <t>2104080702865dfb</t>
+  </si>
+  <si>
+    <t>Bếp âm Civina CV-868</t>
+  </si>
+  <si>
+    <t>BACV-868</t>
+  </si>
+  <si>
+    <t>210408b4c64c98e1</t>
+  </si>
+  <si>
+    <t>Bếp điện 2 từ CV-665</t>
+  </si>
+  <si>
+    <t>BĐTCV-665</t>
+  </si>
+  <si>
+    <t>2104082c7a59dd84</t>
+  </si>
+  <si>
+    <t>2104087da05c292e</t>
+  </si>
+  <si>
+    <t>21040881125cfbeb</t>
+  </si>
+  <si>
+    <t>21040829c48b5d53</t>
+  </si>
+  <si>
+    <t>21040832435f027f</t>
+  </si>
+  <si>
+    <t>210408d0f2b4ef0d</t>
+  </si>
+  <si>
+    <t>21040885a2d0a372</t>
+  </si>
+  <si>
+    <t>210408e96d043452</t>
+  </si>
+  <si>
+    <t>21040815745cadde</t>
+  </si>
+  <si>
+    <t>TRỊNH HỮU CHIẾN</t>
+  </si>
+  <si>
+    <t>202/4  ấp 4, xã phú hoà</t>
+  </si>
+  <si>
+    <t>0946.499.192</t>
+  </si>
+  <si>
+    <t>2103260b34caf45c</t>
+  </si>
+  <si>
+    <t>07-07-2022</t>
+  </si>
+  <si>
+    <t>06-07-2024</t>
+  </si>
+  <si>
+    <t>NT Xinh Decor</t>
+  </si>
+  <si>
+    <t>131 Trương Công Định</t>
+  </si>
+  <si>
+    <t>0908345710</t>
+  </si>
+  <si>
+    <t>210408ed6399b387</t>
+  </si>
+  <si>
+    <t>210408345733827c</t>
+  </si>
+  <si>
+    <t>VLXD Tân Tiến</t>
+  </si>
+  <si>
+    <t>56 Tổ 2, Thọ Lâm 1, Phú Thành</t>
+  </si>
+  <si>
+    <t>0933183778</t>
+  </si>
+  <si>
+    <t>2104085b0b391953</t>
+  </si>
+  <si>
+    <t>210408b857969ced</t>
+  </si>
+  <si>
+    <t>Cửa hàng Vạn Sự Hơng</t>
+  </si>
+  <si>
+    <t>229A QL2, ấp Trung, Xã Tân Thông Hội, Củ Chi, TP</t>
+  </si>
+  <si>
+    <t>0973.995.973</t>
+  </si>
+  <si>
+    <t>21040865eec73d10</t>
+  </si>
+  <si>
+    <t>2104085e9fe233ca</t>
+  </si>
+  <si>
+    <t>VLXD THIÊN LỘC PHÁT</t>
+  </si>
+  <si>
+    <t>0901383435</t>
+  </si>
+  <si>
+    <t>2103269cfe0806af</t>
+  </si>
+  <si>
+    <t>06-07-2022</t>
+  </si>
+  <si>
+    <t>05-07-2024</t>
+  </si>
+  <si>
+    <t>ANH HIỂN THỦ ĐỨC</t>
+  </si>
+  <si>
+    <t>Thủ Đức</t>
+  </si>
+  <si>
+    <t>2104082907ffa973</t>
+  </si>
+  <si>
+    <t>Cửa hàng Thanh Ngân Tô Ký</t>
+  </si>
+  <si>
+    <t>475 Tô Ký, Quận 12, TP.HCM</t>
+  </si>
+  <si>
+    <t>0902306046</t>
+  </si>
+  <si>
+    <t>210408ff064a1111</t>
+  </si>
+  <si>
+    <t>210408b0a9cf067b</t>
+  </si>
+  <si>
+    <t>A Cường Bình Minh Biên Hòa</t>
+  </si>
+  <si>
+    <t>G47 Đơờng Bùi Văn Hòa, Tổ 18, KP7,Long Bình Tân</t>
+  </si>
+  <si>
+    <t>0919.789.191</t>
+  </si>
+  <si>
+    <t>Hút khói  Canaval CA-8790S</t>
+  </si>
+  <si>
+    <t>HKCA-8790S</t>
+  </si>
+  <si>
+    <t>21040805b9badde9</t>
+  </si>
+  <si>
+    <t>21040835cf3675dd</t>
+  </si>
+  <si>
+    <t>Chinh Gold Max</t>
+  </si>
+  <si>
+    <t>21040853de8b1acd</t>
+  </si>
+  <si>
+    <t>NT Phạm Hoàng</t>
+  </si>
+  <si>
+    <t>thạnh lộc 12 thạnh lộc q12.</t>
+  </si>
+  <si>
+    <t>0337739200</t>
+  </si>
+  <si>
+    <t>21040814b92a4970</t>
+  </si>
+  <si>
+    <t>05-07-2022</t>
+  </si>
+  <si>
+    <t>04-07-2024</t>
+  </si>
+  <si>
+    <t>Hút khói Canaval CA-8700S</t>
+  </si>
+  <si>
+    <t>HKCA-8700S</t>
+  </si>
+  <si>
+    <t>210408c397f8678c</t>
+  </si>
+  <si>
+    <t>210408e79389394e</t>
+  </si>
+  <si>
+    <t>2104082e97dca0fe</t>
+  </si>
+  <si>
+    <t>CTY TNHH Kiến Nhất Nam</t>
+  </si>
+  <si>
+    <t>216 Nguyễn Phúc Chu, kp5, Trảng Dài, Biên Hoà</t>
+  </si>
+  <si>
+    <t>096 7074379</t>
+  </si>
+  <si>
+    <t>210408d7f1f6ebf0</t>
+  </si>
+  <si>
+    <t>210408f2420fef8d</t>
+  </si>
+  <si>
+    <t>Nhàn NT Mộc Đức</t>
+  </si>
+  <si>
+    <t>21040886a73a389e</t>
+  </si>
+  <si>
+    <t>210408d6b238683e</t>
+  </si>
+  <si>
+    <t>Mộc Hương Phan Rang</t>
+  </si>
+  <si>
+    <t>0888799959</t>
+  </si>
+  <si>
+    <t>Hút khói  Civina CV-700D</t>
+  </si>
+  <si>
+    <t>HKCV-700D</t>
+  </si>
+  <si>
+    <t>21040861c50be6b1</t>
+  </si>
+  <si>
+    <t>Showroom Phú Đại Phát</t>
+  </si>
+  <si>
+    <t>DT 742,KP4, P.Vĩnh Tân</t>
+  </si>
+  <si>
+    <t>0919322378</t>
+  </si>
+  <si>
+    <t>210326b0d17a9310</t>
+  </si>
+  <si>
+    <t>04-07-2022</t>
+  </si>
+  <si>
+    <t>03-07-2024</t>
+  </si>
+  <si>
+    <t>2104088b557330f7</t>
+  </si>
+  <si>
+    <t>210408a3b7986e09</t>
+  </si>
+  <si>
+    <t>2104086cae50b91b</t>
+  </si>
+  <si>
+    <t>Cửa Hàng VLXD Thiện Phát</t>
+  </si>
+  <si>
+    <t>Ấp liên Sơn Xã Xà Bàng H, Châu Đức BRVT</t>
+  </si>
+  <si>
+    <t>0985.472.772</t>
+  </si>
+  <si>
+    <t>21040863b9dfc6d9</t>
+  </si>
+  <si>
+    <t>A Thi - NT Mộc Việt Bình Dương</t>
+  </si>
+  <si>
+    <t>P. Định Hòa, Tp Thủ Dầu 1, Bình Dương</t>
+  </si>
+  <si>
+    <t>'0975535232</t>
+  </si>
+  <si>
+    <t>2104081f20cf9310</t>
+  </si>
+  <si>
+    <t>NT Vân Khoa Long Thành</t>
+  </si>
+  <si>
+    <t>ĐT769, Lộc An, Long Thành, Đồng Nai</t>
+  </si>
+  <si>
+    <t>'0938766090</t>
+  </si>
+  <si>
+    <t>210408abfcf29c3e</t>
+  </si>
+  <si>
+    <t>2104086ace549328</t>
+  </si>
+  <si>
+    <t>210408b883f55ebd</t>
+  </si>
+  <si>
+    <t>Hút khói Civina CV-3388C</t>
+  </si>
+  <si>
+    <t>HKCV-3388C</t>
+  </si>
+  <si>
+    <t>21040857016fd29e</t>
+  </si>
+  <si>
+    <t>21040808897b7cdd</t>
+  </si>
+  <si>
+    <t>21040851895ce4a0</t>
+  </si>
+  <si>
+    <t>2104089d251fd452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTNT Thành Cường </t>
+  </si>
+  <si>
+    <t>0901587070</t>
+  </si>
+  <si>
+    <t>Bếp âm Canaval CA-6828</t>
+  </si>
+  <si>
+    <t>BACA-6828</t>
+  </si>
+  <si>
+    <t>210408c5dd448974</t>
+  </si>
+  <si>
+    <t>Cửa hàng nội thất giá rẻ DDR</t>
+  </si>
+  <si>
+    <t>135 Thạnh Xuân 21, P. Thạnh Xuân, Q12, TP.HCM</t>
+  </si>
+  <si>
+    <t>0942.016.464</t>
+  </si>
+  <si>
+    <t>21040808e2f88abd</t>
+  </si>
+  <si>
+    <t>02-07-2022</t>
+  </si>
+  <si>
+    <t>01-07-2024</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Kiên</t>
+  </si>
+  <si>
+    <t>218 Y Wang, Buôn Ma Thuộc, Đắk Lắk</t>
+  </si>
+  <si>
+    <t>0823475475</t>
+  </si>
+  <si>
+    <t>21040834b5401cc1</t>
+  </si>
+  <si>
+    <t>2104083d8e491e58</t>
+  </si>
+  <si>
+    <t>210408727c0c4b99</t>
   </si>
 </sst>
 </file>
@@ -575,13 +1577,25 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="45" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="80" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="47" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="23" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -670,10 +1684,10 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -684,24 +1698,26 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -712,24 +1728,26 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -740,26 +1758,26 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -770,28 +1788,26 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C7"/>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -802,28 +1818,26 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C8"/>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -834,24 +1848,26 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -862,28 +1878,26 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C10"/>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -894,28 +1908,26 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C11"/>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -926,28 +1938,26 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C12"/>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -958,26 +1968,4268 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="s">
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="G13" t="s">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I54" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="I13" t="s">
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="J13" t="s">
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" t="s">
+        <v>144</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" t="s">
+        <v>144</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" t="s">
+        <v>144</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" t="s">
+        <v>144</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" t="s">
+        <v>144</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" t="s">
+        <v>144</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>167</v>
+      </c>
+      <c r="H62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" t="s">
+        <v>144</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" t="s">
+        <v>144</v>
+      </c>
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>175</v>
+      </c>
+      <c r="H65" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" t="s">
+        <v>144</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" t="s">
+        <v>179</v>
+      </c>
+      <c r="F66" t="s">
+        <v>180</v>
+      </c>
+      <c r="G66" t="s">
+        <v>181</v>
+      </c>
+      <c r="H66" t="s">
+        <v>182</v>
+      </c>
+      <c r="I66" t="s">
+        <v>183</v>
+      </c>
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" t="s">
+        <v>180</v>
+      </c>
+      <c r="G67" t="s">
+        <v>187</v>
+      </c>
+      <c r="H67" t="s">
+        <v>182</v>
+      </c>
+      <c r="I67" t="s">
+        <v>183</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G68" t="s">
+        <v>192</v>
+      </c>
+      <c r="H68" t="s">
+        <v>182</v>
+      </c>
+      <c r="I68" t="s">
+        <v>183</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" t="s">
+        <v>182</v>
+      </c>
+      <c r="I69" t="s">
+        <v>183</v>
+      </c>
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" t="s">
+        <v>182</v>
+      </c>
+      <c r="I70" t="s">
+        <v>183</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" t="s">
+        <v>201</v>
+      </c>
+      <c r="H71" t="s">
+        <v>182</v>
+      </c>
+      <c r="I71" t="s">
+        <v>183</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" t="s">
+        <v>183</v>
+      </c>
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I73" t="s">
+        <v>183</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s">
+        <v>213</v>
+      </c>
+      <c r="H74" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" t="s">
+        <v>183</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s">
+        <v>217</v>
+      </c>
+      <c r="H75" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75" t="s">
+        <v>183</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" t="s">
+        <v>222</v>
+      </c>
+      <c r="G76" t="s">
+        <v>223</v>
+      </c>
+      <c r="H76" t="s">
+        <v>182</v>
+      </c>
+      <c r="I76" t="s">
+        <v>183</v>
+      </c>
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>224</v>
+      </c>
+      <c r="H77" t="s">
+        <v>182</v>
+      </c>
+      <c r="I77" t="s">
+        <v>183</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" t="s">
+        <v>226</v>
+      </c>
+      <c r="G78" t="s">
+        <v>227</v>
+      </c>
+      <c r="H78" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" t="s">
+        <v>183</v>
+      </c>
+      <c r="J78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s">
+        <v>231</v>
+      </c>
+      <c r="H79" t="s">
+        <v>232</v>
+      </c>
+      <c r="I79" t="s">
+        <v>233</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80" t="s">
+        <v>236</v>
+      </c>
+      <c r="H80" t="s">
+        <v>232</v>
+      </c>
+      <c r="I80" t="s">
+        <v>233</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" t="s">
+        <v>240</v>
+      </c>
+      <c r="F81" t="s">
+        <v>241</v>
+      </c>
+      <c r="G81" t="s">
+        <v>242</v>
+      </c>
+      <c r="H81" t="s">
+        <v>232</v>
+      </c>
+      <c r="I81" t="s">
+        <v>233</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" t="s">
+        <v>245</v>
+      </c>
+      <c r="E82" t="s">
+        <v>240</v>
+      </c>
+      <c r="F82" t="s">
+        <v>241</v>
+      </c>
+      <c r="G82" t="s">
+        <v>246</v>
+      </c>
+      <c r="H82" t="s">
+        <v>232</v>
+      </c>
+      <c r="I82" t="s">
+        <v>233</v>
+      </c>
+      <c r="J82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" t="s">
+        <v>84</v>
+      </c>
+      <c r="G83" t="s">
+        <v>248</v>
+      </c>
+      <c r="H83" t="s">
+        <v>232</v>
+      </c>
+      <c r="I83" t="s">
+        <v>233</v>
+      </c>
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
+        <v>230</v>
+      </c>
+      <c r="E84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" t="s">
+        <v>249</v>
+      </c>
+      <c r="H84" t="s">
+        <v>232</v>
+      </c>
+      <c r="I84" t="s">
+        <v>233</v>
+      </c>
+      <c r="J84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" t="s">
+        <v>250</v>
+      </c>
+      <c r="F85" t="s">
+        <v>251</v>
+      </c>
+      <c r="G85" t="s">
+        <v>252</v>
+      </c>
+      <c r="H85" t="s">
+        <v>253</v>
+      </c>
+      <c r="I85" t="s">
+        <v>254</v>
+      </c>
+      <c r="J85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" t="s">
+        <v>256</v>
+      </c>
+      <c r="G86" t="s">
+        <v>257</v>
+      </c>
+      <c r="H86" t="s">
+        <v>253</v>
+      </c>
+      <c r="I86" t="s">
+        <v>254</v>
+      </c>
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s">
+        <v>261</v>
+      </c>
+      <c r="H87" t="s">
+        <v>253</v>
+      </c>
+      <c r="I87" t="s">
+        <v>254</v>
+      </c>
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" t="s">
+        <v>69</v>
+      </c>
+      <c r="G88" t="s">
+        <v>265</v>
+      </c>
+      <c r="H88" t="s">
+        <v>253</v>
+      </c>
+      <c r="I88" t="s">
+        <v>254</v>
+      </c>
+      <c r="J88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E89" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>266</v>
+      </c>
+      <c r="H89" t="s">
+        <v>253</v>
+      </c>
+      <c r="I89" t="s">
+        <v>254</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s">
+        <v>267</v>
+      </c>
+      <c r="H90" t="s">
+        <v>253</v>
+      </c>
+      <c r="I90" t="s">
+        <v>254</v>
+      </c>
+      <c r="J90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" t="s">
+        <v>264</v>
+      </c>
+      <c r="E91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" t="s">
+        <v>129</v>
+      </c>
+      <c r="G91" t="s">
+        <v>268</v>
+      </c>
+      <c r="H91" t="s">
+        <v>253</v>
+      </c>
+      <c r="I91" t="s">
+        <v>254</v>
+      </c>
+      <c r="J91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92" t="s">
+        <v>272</v>
+      </c>
+      <c r="H92" t="s">
+        <v>253</v>
+      </c>
+      <c r="I92" t="s">
+        <v>254</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" t="s">
+        <v>271</v>
+      </c>
+      <c r="E93" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" t="s">
+        <v>129</v>
+      </c>
+      <c r="G93" t="s">
+        <v>273</v>
+      </c>
+      <c r="H93" t="s">
+        <v>253</v>
+      </c>
+      <c r="I93" t="s">
+        <v>254</v>
+      </c>
+      <c r="J93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" t="s">
+        <v>274</v>
+      </c>
+      <c r="H94" t="s">
+        <v>253</v>
+      </c>
+      <c r="I94" t="s">
+        <v>254</v>
+      </c>
+      <c r="J94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" t="s">
+        <v>263</v>
+      </c>
+      <c r="D95" t="s">
+        <v>264</v>
+      </c>
+      <c r="E95" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" t="s">
+        <v>275</v>
+      </c>
+      <c r="H95" t="s">
+        <v>253</v>
+      </c>
+      <c r="I95" t="s">
+        <v>254</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96" t="s">
+        <v>276</v>
+      </c>
+      <c r="H96" t="s">
+        <v>253</v>
+      </c>
+      <c r="I96" t="s">
+        <v>254</v>
+      </c>
+      <c r="J96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" t="s">
+        <v>277</v>
+      </c>
+      <c r="H97" t="s">
+        <v>253</v>
+      </c>
+      <c r="I97" t="s">
+        <v>254</v>
+      </c>
+      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" t="s">
+        <v>279</v>
+      </c>
+      <c r="D98" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" t="s">
+        <v>84</v>
+      </c>
+      <c r="G98" t="s">
+        <v>281</v>
+      </c>
+      <c r="H98" t="s">
+        <v>253</v>
+      </c>
+      <c r="I98" t="s">
+        <v>254</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" t="s">
+        <v>263</v>
+      </c>
+      <c r="D99" t="s">
+        <v>264</v>
+      </c>
+      <c r="E99" t="s">
+        <v>282</v>
+      </c>
+      <c r="F99" t="s">
+        <v>283</v>
+      </c>
+      <c r="G99" t="s">
+        <v>284</v>
+      </c>
+      <c r="H99" t="s">
+        <v>253</v>
+      </c>
+      <c r="I99" t="s">
+        <v>254</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" t="s">
+        <v>263</v>
+      </c>
+      <c r="D100" t="s">
+        <v>264</v>
+      </c>
+      <c r="E100" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" t="s">
+        <v>286</v>
+      </c>
+      <c r="G100" t="s">
+        <v>287</v>
+      </c>
+      <c r="H100" t="s">
+        <v>253</v>
+      </c>
+      <c r="I100" t="s">
+        <v>254</v>
+      </c>
+      <c r="J100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" t="s">
+        <v>221</v>
+      </c>
+      <c r="F101" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" t="s">
+        <v>288</v>
+      </c>
+      <c r="H101" t="s">
+        <v>253</v>
+      </c>
+      <c r="I101" t="s">
+        <v>254</v>
+      </c>
+      <c r="J101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" t="s">
+        <v>95</v>
+      </c>
+      <c r="G102" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" t="s">
+        <v>253</v>
+      </c>
+      <c r="I102" t="s">
+        <v>254</v>
+      </c>
+      <c r="J102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" t="s">
+        <v>263</v>
+      </c>
+      <c r="D103" t="s">
+        <v>264</v>
+      </c>
+      <c r="E103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" t="s">
+        <v>100</v>
+      </c>
+      <c r="G103" t="s">
+        <v>290</v>
+      </c>
+      <c r="H103" t="s">
+        <v>253</v>
+      </c>
+      <c r="I103" t="s">
+        <v>254</v>
+      </c>
+      <c r="J103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" t="s">
+        <v>259</v>
+      </c>
+      <c r="D104" t="s">
+        <v>260</v>
+      </c>
+      <c r="E104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" t="s">
+        <v>107</v>
+      </c>
+      <c r="G104" t="s">
+        <v>291</v>
+      </c>
+      <c r="H104" t="s">
+        <v>253</v>
+      </c>
+      <c r="I104" t="s">
+        <v>254</v>
+      </c>
+      <c r="J104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
+        <v>263</v>
+      </c>
+      <c r="D105" t="s">
+        <v>264</v>
+      </c>
+      <c r="E105" t="s">
+        <v>103</v>
+      </c>
+      <c r="F105" t="s">
+        <v>104</v>
+      </c>
+      <c r="G105" t="s">
+        <v>292</v>
+      </c>
+      <c r="H105" t="s">
+        <v>253</v>
+      </c>
+      <c r="I105" t="s">
+        <v>254</v>
+      </c>
+      <c r="J105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>262</v>
+      </c>
+      <c r="C106" t="s">
+        <v>263</v>
+      </c>
+      <c r="D106" t="s">
+        <v>264</v>
+      </c>
+      <c r="E106" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" t="s">
+        <v>100</v>
+      </c>
+      <c r="G106" t="s">
+        <v>293</v>
+      </c>
+      <c r="H106" t="s">
+        <v>253</v>
+      </c>
+      <c r="I106" t="s">
+        <v>254</v>
+      </c>
+      <c r="J106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" t="s">
+        <v>263</v>
+      </c>
+      <c r="D107" t="s">
+        <v>264</v>
+      </c>
+      <c r="E107" t="s">
+        <v>282</v>
+      </c>
+      <c r="F107" t="s">
+        <v>283</v>
+      </c>
+      <c r="G107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H107" t="s">
+        <v>253</v>
+      </c>
+      <c r="I107" t="s">
+        <v>254</v>
+      </c>
+      <c r="J107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" t="s">
+        <v>208</v>
+      </c>
+      <c r="E108" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" t="s">
+        <v>100</v>
+      </c>
+      <c r="G108" t="s">
+        <v>295</v>
+      </c>
+      <c r="H108" t="s">
+        <v>253</v>
+      </c>
+      <c r="I108" t="s">
+        <v>254</v>
+      </c>
+      <c r="J108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>296</v>
+      </c>
+      <c r="C109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109" t="s">
+        <v>298</v>
+      </c>
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>299</v>
+      </c>
+      <c r="H109" t="s">
+        <v>300</v>
+      </c>
+      <c r="I109" t="s">
+        <v>301</v>
+      </c>
+      <c r="J109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" t="s">
+        <v>56</v>
+      </c>
+      <c r="F110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110" t="s">
+        <v>305</v>
+      </c>
+      <c r="H110" t="s">
+        <v>300</v>
+      </c>
+      <c r="I110" t="s">
+        <v>301</v>
+      </c>
+      <c r="J110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" t="s">
+        <v>303</v>
+      </c>
+      <c r="D111" t="s">
+        <v>304</v>
+      </c>
+      <c r="E111" t="s">
+        <v>61</v>
+      </c>
+      <c r="F111" t="s">
+        <v>62</v>
+      </c>
+      <c r="G111" t="s">
+        <v>306</v>
+      </c>
+      <c r="H111" t="s">
+        <v>300</v>
+      </c>
+      <c r="I111" t="s">
+        <v>301</v>
+      </c>
+      <c r="J111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" t="s">
+        <v>309</v>
+      </c>
+      <c r="E112" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" t="s">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s">
+        <v>310</v>
+      </c>
+      <c r="H112" t="s">
+        <v>300</v>
+      </c>
+      <c r="I112" t="s">
+        <v>301</v>
+      </c>
+      <c r="J112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" t="s">
+        <v>308</v>
+      </c>
+      <c r="D113" t="s">
+        <v>309</v>
+      </c>
+      <c r="E113" t="s">
+        <v>285</v>
+      </c>
+      <c r="F113" t="s">
+        <v>286</v>
+      </c>
+      <c r="G113" t="s">
+        <v>311</v>
+      </c>
+      <c r="H113" t="s">
+        <v>300</v>
+      </c>
+      <c r="I113" t="s">
+        <v>301</v>
+      </c>
+      <c r="J113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" t="s">
+        <v>314</v>
+      </c>
+      <c r="E114" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" t="s">
+        <v>100</v>
+      </c>
+      <c r="G114" t="s">
+        <v>315</v>
+      </c>
+      <c r="H114" t="s">
+        <v>300</v>
+      </c>
+      <c r="I114" t="s">
+        <v>301</v>
+      </c>
+      <c r="J114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" t="s">
+        <v>297</v>
+      </c>
+      <c r="D115" t="s">
+        <v>298</v>
+      </c>
+      <c r="E115" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" t="s">
+        <v>107</v>
+      </c>
+      <c r="G115" t="s">
+        <v>316</v>
+      </c>
+      <c r="H115" t="s">
+        <v>300</v>
+      </c>
+      <c r="I115" t="s">
+        <v>301</v>
+      </c>
+      <c r="J115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116" t="s">
+        <v>318</v>
+      </c>
+      <c r="E116" t="s">
+        <v>250</v>
+      </c>
+      <c r="F116" t="s">
+        <v>251</v>
+      </c>
+      <c r="G116" t="s">
+        <v>319</v>
+      </c>
+      <c r="H116" t="s">
+        <v>320</v>
+      </c>
+      <c r="I116" t="s">
+        <v>321</v>
+      </c>
+      <c r="J116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>322</v>
+      </c>
+      <c r="C117" t="s">
+        <v>323</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" t="s">
+        <v>324</v>
+      </c>
+      <c r="H117" t="s">
+        <v>320</v>
+      </c>
+      <c r="I117" t="s">
+        <v>321</v>
+      </c>
+      <c r="J117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>325</v>
+      </c>
+      <c r="C118" t="s">
+        <v>326</v>
+      </c>
+      <c r="D118" t="s">
+        <v>327</v>
+      </c>
+      <c r="E118" t="s">
+        <v>171</v>
+      </c>
+      <c r="F118" t="s">
+        <v>172</v>
+      </c>
+      <c r="G118" t="s">
+        <v>328</v>
+      </c>
+      <c r="H118" t="s">
+        <v>320</v>
+      </c>
+      <c r="I118" t="s">
+        <v>321</v>
+      </c>
+      <c r="J118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" t="s">
+        <v>326</v>
+      </c>
+      <c r="D119" t="s">
+        <v>327</v>
+      </c>
+      <c r="E119" t="s">
+        <v>68</v>
+      </c>
+      <c r="F119" t="s">
+        <v>69</v>
+      </c>
+      <c r="G119" t="s">
+        <v>329</v>
+      </c>
+      <c r="H119" t="s">
+        <v>320</v>
+      </c>
+      <c r="I119" t="s">
+        <v>321</v>
+      </c>
+      <c r="J119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>330</v>
+      </c>
+      <c r="C120" t="s">
+        <v>331</v>
+      </c>
+      <c r="D120" t="s">
+        <v>332</v>
+      </c>
+      <c r="E120" t="s">
+        <v>333</v>
+      </c>
+      <c r="F120" t="s">
+        <v>334</v>
+      </c>
+      <c r="G120" t="s">
+        <v>335</v>
+      </c>
+      <c r="H120" t="s">
+        <v>320</v>
+      </c>
+      <c r="I120" t="s">
+        <v>321</v>
+      </c>
+      <c r="J120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" t="s">
+        <v>100</v>
+      </c>
+      <c r="G121" t="s">
+        <v>336</v>
+      </c>
+      <c r="H121" t="s">
+        <v>320</v>
+      </c>
+      <c r="I121" t="s">
+        <v>321</v>
+      </c>
+      <c r="J121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122" t="s">
+        <v>103</v>
+      </c>
+      <c r="F122" t="s">
+        <v>104</v>
+      </c>
+      <c r="G122" t="s">
+        <v>338</v>
+      </c>
+      <c r="H122" t="s">
+        <v>320</v>
+      </c>
+      <c r="I122" t="s">
+        <v>321</v>
+      </c>
+      <c r="J122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" t="s">
+        <v>340</v>
+      </c>
+      <c r="D123" t="s">
+        <v>341</v>
+      </c>
+      <c r="E123" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" t="s">
+        <v>342</v>
+      </c>
+      <c r="H123" t="s">
+        <v>343</v>
+      </c>
+      <c r="I123" t="s">
+        <v>344</v>
+      </c>
+      <c r="J123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" t="s">
+        <v>280</v>
+      </c>
+      <c r="E124" t="s">
+        <v>345</v>
+      </c>
+      <c r="F124" t="s">
+        <v>346</v>
+      </c>
+      <c r="G124" t="s">
+        <v>347</v>
+      </c>
+      <c r="H124" t="s">
+        <v>343</v>
+      </c>
+      <c r="I124" t="s">
+        <v>344</v>
+      </c>
+      <c r="J124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>339</v>
+      </c>
+      <c r="C125" t="s">
+        <v>340</v>
+      </c>
+      <c r="D125" t="s">
+        <v>341</v>
+      </c>
+      <c r="E125" t="s">
+        <v>171</v>
+      </c>
+      <c r="F125" t="s">
+        <v>172</v>
+      </c>
+      <c r="G125" t="s">
+        <v>348</v>
+      </c>
+      <c r="H125" t="s">
+        <v>343</v>
+      </c>
+      <c r="I125" t="s">
+        <v>344</v>
+      </c>
+      <c r="J125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126" t="s">
+        <v>340</v>
+      </c>
+      <c r="D126" t="s">
+        <v>341</v>
+      </c>
+      <c r="E126" t="s">
+        <v>171</v>
+      </c>
+      <c r="F126" t="s">
+        <v>172</v>
+      </c>
+      <c r="G126" t="s">
+        <v>349</v>
+      </c>
+      <c r="H126" t="s">
+        <v>343</v>
+      </c>
+      <c r="I126" t="s">
+        <v>344</v>
+      </c>
+      <c r="J126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>350</v>
+      </c>
+      <c r="C127" t="s">
+        <v>351</v>
+      </c>
+      <c r="D127" t="s">
+        <v>352</v>
+      </c>
+      <c r="E127" t="s">
+        <v>114</v>
+      </c>
+      <c r="F127" t="s">
+        <v>115</v>
+      </c>
+      <c r="G127" t="s">
+        <v>353</v>
+      </c>
+      <c r="H127" t="s">
+        <v>343</v>
+      </c>
+      <c r="I127" t="s">
+        <v>344</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" t="s">
+        <v>279</v>
+      </c>
+      <c r="D128" t="s">
+        <v>280</v>
+      </c>
+      <c r="E128" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" t="s">
+        <v>129</v>
+      </c>
+      <c r="G128" t="s">
+        <v>354</v>
+      </c>
+      <c r="H128" t="s">
+        <v>343</v>
+      </c>
+      <c r="I128" t="s">
+        <v>344</v>
+      </c>
+      <c r="J128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>355</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129" t="s">
+        <v>240</v>
+      </c>
+      <c r="F129" t="s">
+        <v>241</v>
+      </c>
+      <c r="G129" t="s">
+        <v>356</v>
+      </c>
+      <c r="H129" t="s">
+        <v>343</v>
+      </c>
+      <c r="I129" t="s">
+        <v>344</v>
+      </c>
+      <c r="J129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130" t="s">
+        <v>351</v>
+      </c>
+      <c r="D130" t="s">
+        <v>352</v>
+      </c>
+      <c r="E130" t="s">
+        <v>94</v>
+      </c>
+      <c r="F130" t="s">
+        <v>95</v>
+      </c>
+      <c r="G130" t="s">
+        <v>357</v>
+      </c>
+      <c r="H130" t="s">
+        <v>343</v>
+      </c>
+      <c r="I130" t="s">
+        <v>344</v>
+      </c>
+      <c r="J130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131" t="s">
+        <v>359</v>
+      </c>
+      <c r="E131" t="s">
+        <v>360</v>
+      </c>
+      <c r="F131" t="s">
+        <v>361</v>
+      </c>
+      <c r="G131" t="s">
+        <v>362</v>
+      </c>
+      <c r="H131" t="s">
+        <v>343</v>
+      </c>
+      <c r="I131" t="s">
+        <v>344</v>
+      </c>
+      <c r="J131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>363</v>
+      </c>
+      <c r="C132" t="s">
+        <v>364</v>
+      </c>
+      <c r="D132" t="s">
+        <v>365</v>
+      </c>
+      <c r="E132" t="s">
+        <v>179</v>
+      </c>
+      <c r="F132" t="s">
+        <v>180</v>
+      </c>
+      <c r="G132" t="s">
+        <v>366</v>
+      </c>
+      <c r="H132" t="s">
+        <v>367</v>
+      </c>
+      <c r="I132" t="s">
+        <v>368</v>
+      </c>
+      <c r="J132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>363</v>
+      </c>
+      <c r="C133" t="s">
+        <v>364</v>
+      </c>
+      <c r="D133" t="s">
+        <v>365</v>
+      </c>
+      <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" t="s">
+        <v>251</v>
+      </c>
+      <c r="G133" t="s">
+        <v>369</v>
+      </c>
+      <c r="H133" t="s">
+        <v>367</v>
+      </c>
+      <c r="I133" t="s">
+        <v>368</v>
+      </c>
+      <c r="J133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>363</v>
+      </c>
+      <c r="C134" t="s">
+        <v>364</v>
+      </c>
+      <c r="D134" t="s">
+        <v>365</v>
+      </c>
+      <c r="E134" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" t="s">
+        <v>370</v>
+      </c>
+      <c r="H134" t="s">
+        <v>367</v>
+      </c>
+      <c r="I134" t="s">
+        <v>368</v>
+      </c>
+      <c r="J134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" t="s">
+        <v>364</v>
+      </c>
+      <c r="D135" t="s">
+        <v>365</v>
+      </c>
+      <c r="E135" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" t="s">
+        <v>41</v>
+      </c>
+      <c r="G135" t="s">
+        <v>371</v>
+      </c>
+      <c r="H135" t="s">
+        <v>367</v>
+      </c>
+      <c r="I135" t="s">
+        <v>368</v>
+      </c>
+      <c r="J135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>372</v>
+      </c>
+      <c r="C136" t="s">
+        <v>373</v>
+      </c>
+      <c r="D136" t="s">
+        <v>374</v>
+      </c>
+      <c r="E136" t="s">
+        <v>345</v>
+      </c>
+      <c r="F136" t="s">
+        <v>346</v>
+      </c>
+      <c r="G136" t="s">
+        <v>375</v>
+      </c>
+      <c r="H136" t="s">
+        <v>367</v>
+      </c>
+      <c r="I136" t="s">
+        <v>368</v>
+      </c>
+      <c r="J136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>376</v>
+      </c>
+      <c r="C137" t="s">
+        <v>377</v>
+      </c>
+      <c r="D137" t="s">
+        <v>378</v>
+      </c>
+      <c r="E137" t="s">
+        <v>87</v>
+      </c>
+      <c r="F137" t="s">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s">
+        <v>379</v>
+      </c>
+      <c r="H137" t="s">
+        <v>367</v>
+      </c>
+      <c r="I137" t="s">
+        <v>368</v>
+      </c>
+      <c r="J137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>380</v>
+      </c>
+      <c r="C138" t="s">
+        <v>381</v>
+      </c>
+      <c r="D138" t="s">
+        <v>382</v>
+      </c>
+      <c r="E138" t="s">
+        <v>360</v>
+      </c>
+      <c r="F138" t="s">
+        <v>361</v>
+      </c>
+      <c r="G138" t="s">
+        <v>383</v>
+      </c>
+      <c r="H138" t="s">
+        <v>367</v>
+      </c>
+      <c r="I138" t="s">
+        <v>368</v>
+      </c>
+      <c r="J138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>380</v>
+      </c>
+      <c r="C139" t="s">
+        <v>381</v>
+      </c>
+      <c r="D139" t="s">
+        <v>382</v>
+      </c>
+      <c r="E139" t="s">
+        <v>360</v>
+      </c>
+      <c r="F139" t="s">
+        <v>361</v>
+      </c>
+      <c r="G139" t="s">
+        <v>384</v>
+      </c>
+      <c r="H139" t="s">
+        <v>367</v>
+      </c>
+      <c r="I139" t="s">
+        <v>368</v>
+      </c>
+      <c r="J139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>363</v>
+      </c>
+      <c r="C140" t="s">
+        <v>364</v>
+      </c>
+      <c r="D140" t="s">
+        <v>365</v>
+      </c>
+      <c r="E140" t="s">
+        <v>103</v>
+      </c>
+      <c r="F140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G140" t="s">
+        <v>385</v>
+      </c>
+      <c r="H140" t="s">
+        <v>367</v>
+      </c>
+      <c r="I140" t="s">
+        <v>368</v>
+      </c>
+      <c r="J140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>363</v>
+      </c>
+      <c r="C141" t="s">
+        <v>364</v>
+      </c>
+      <c r="D141" t="s">
+        <v>365</v>
+      </c>
+      <c r="E141" t="s">
+        <v>386</v>
+      </c>
+      <c r="F141" t="s">
+        <v>387</v>
+      </c>
+      <c r="G141" t="s">
+        <v>388</v>
+      </c>
+      <c r="H141" t="s">
+        <v>367</v>
+      </c>
+      <c r="I141" t="s">
+        <v>368</v>
+      </c>
+      <c r="J141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>363</v>
+      </c>
+      <c r="C142" t="s">
+        <v>364</v>
+      </c>
+      <c r="D142" t="s">
+        <v>365</v>
+      </c>
+      <c r="E142" t="s">
+        <v>386</v>
+      </c>
+      <c r="F142" t="s">
+        <v>387</v>
+      </c>
+      <c r="G142" t="s">
+        <v>389</v>
+      </c>
+      <c r="H142" t="s">
+        <v>367</v>
+      </c>
+      <c r="I142" t="s">
+        <v>368</v>
+      </c>
+      <c r="J142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>363</v>
+      </c>
+      <c r="C143" t="s">
+        <v>364</v>
+      </c>
+      <c r="D143" t="s">
+        <v>365</v>
+      </c>
+      <c r="E143" t="s">
+        <v>99</v>
+      </c>
+      <c r="F143" t="s">
+        <v>100</v>
+      </c>
+      <c r="G143" t="s">
+        <v>390</v>
+      </c>
+      <c r="H143" t="s">
+        <v>367</v>
+      </c>
+      <c r="I143" t="s">
+        <v>368</v>
+      </c>
+      <c r="J143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>376</v>
+      </c>
+      <c r="C144" t="s">
+        <v>377</v>
+      </c>
+      <c r="D144" t="s">
+        <v>378</v>
+      </c>
+      <c r="E144" t="s">
+        <v>285</v>
+      </c>
+      <c r="F144" t="s">
+        <v>286</v>
+      </c>
+      <c r="G144" t="s">
+        <v>391</v>
+      </c>
+      <c r="H144" t="s">
+        <v>367</v>
+      </c>
+      <c r="I144" t="s">
+        <v>368</v>
+      </c>
+      <c r="J144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>392</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145" t="s">
+        <v>393</v>
+      </c>
+      <c r="E145" t="s">
+        <v>394</v>
+      </c>
+      <c r="F145" t="s">
+        <v>395</v>
+      </c>
+      <c r="G145" t="s">
+        <v>396</v>
+      </c>
+      <c r="H145" t="s">
+        <v>367</v>
+      </c>
+      <c r="I145" t="s">
+        <v>368</v>
+      </c>
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>397</v>
+      </c>
+      <c r="C146" t="s">
+        <v>398</v>
+      </c>
+      <c r="D146" t="s">
+        <v>399</v>
+      </c>
+      <c r="E146" t="s">
+        <v>171</v>
+      </c>
+      <c r="F146" t="s">
+        <v>172</v>
+      </c>
+      <c r="G146" t="s">
+        <v>400</v>
+      </c>
+      <c r="H146" t="s">
+        <v>401</v>
+      </c>
+      <c r="I146" t="s">
+        <v>402</v>
+      </c>
+      <c r="J146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>403</v>
+      </c>
+      <c r="C147" t="s">
+        <v>404</v>
+      </c>
+      <c r="D147" t="s">
+        <v>405</v>
+      </c>
+      <c r="E147" t="s">
+        <v>77</v>
+      </c>
+      <c r="F147" t="s">
+        <v>78</v>
+      </c>
+      <c r="G147" t="s">
+        <v>406</v>
+      </c>
+      <c r="H147" t="s">
+        <v>401</v>
+      </c>
+      <c r="I147" t="s">
+        <v>402</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148" t="s">
+        <v>83</v>
+      </c>
+      <c r="F148" t="s">
+        <v>84</v>
+      </c>
+      <c r="G148" t="s">
+        <v>407</v>
+      </c>
+      <c r="H148" t="s">
+        <v>401</v>
+      </c>
+      <c r="I148" t="s">
+        <v>402</v>
+      </c>
+      <c r="J148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>403</v>
+      </c>
+      <c r="C149" t="s">
+        <v>404</v>
+      </c>
+      <c r="D149" t="s">
+        <v>405</v>
+      </c>
+      <c r="E149" t="s">
+        <v>83</v>
+      </c>
+      <c r="F149" t="s">
+        <v>84</v>
+      </c>
+      <c r="G149" t="s">
+        <v>408</v>
+      </c>
+      <c r="H149" t="s">
+        <v>401</v>
+      </c>
+      <c r="I149" t="s">
+        <v>402</v>
+      </c>
+      <c r="J149" t="s">
         <v>18</v>
       </c>
     </row>
